--- a/github.xlsx
+++ b/github.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="245">
   <si>
     <t>File_name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Origin_file</t>
   </si>
   <si>
-    <t>On_gyne_stridulation1</t>
+    <t>worker_perform_On_gyne_stridulation01</t>
   </si>
   <si>
     <t>S.invicta</t>
@@ -65,115 +65,115 @@
     <t>11.26 flag ant1</t>
   </si>
   <si>
-    <t>On_gyne_stridulation2</t>
+    <t>worker_perform_On_gyne_stridulation02</t>
   </si>
   <si>
     <t>11.26 flag ant2metal.WAV</t>
   </si>
   <si>
-    <t>On_gyne_stridulation3</t>
+    <t>worker_perform_On_gyne_stridulation03</t>
   </si>
   <si>
     <t>11.28 flag4.WAV</t>
   </si>
   <si>
-    <t>On_gyne_stridulation4</t>
+    <t>worker_perform_On_gyne_stridulation04</t>
   </si>
   <si>
     <t>2.25 flag</t>
   </si>
   <si>
-    <t>On_gyne_stridulation5</t>
+    <t>worker_perform_On_gyne_stridulation05</t>
   </si>
   <si>
     <t>2.28 flag1</t>
   </si>
   <si>
-    <t>On_gyne_stridulation6</t>
+    <t>worker_perform_On_gyne_stridulation06</t>
   </si>
   <si>
     <t>2.28 flag2</t>
   </si>
   <si>
-    <t>On_gyne_stridulation7</t>
+    <t>worker_perform_On_gyne_stridulation07</t>
   </si>
   <si>
     <t>2.28 flag3</t>
   </si>
   <si>
-    <t>On_gyne_stridulation8</t>
+    <t>worker_perform_On_gyne_stridulation08</t>
   </si>
   <si>
     <t>2.28 flag4</t>
   </si>
   <si>
-    <t>On_gyne_stridulation9</t>
+    <t>worker_perform_On_gyne_stridulation09</t>
   </si>
   <si>
     <t>2.28 flag5</t>
   </si>
   <si>
-    <t>On_gyne_stridulation10</t>
+    <t>worker_perform_On_gyne_stridulation10</t>
   </si>
   <si>
     <t>3.14metal</t>
   </si>
   <si>
-    <t>On_gyne_stridulation11</t>
+    <t>worker_perform_On_gyne_stridulation11</t>
   </si>
   <si>
     <t>2.28metal1</t>
   </si>
   <si>
-    <t>On_gyne_stridulation12</t>
+    <t>worker_perform_On_gyne_stridulation12</t>
   </si>
   <si>
     <t>2.28metal2</t>
   </si>
   <si>
-    <t>On_gyne_stridulation13</t>
+    <t>worker_perform_On_gyne_stridulation13</t>
   </si>
   <si>
     <t>2.28metal3</t>
   </si>
   <si>
-    <t>On_gyne_stridulation14</t>
+    <t>worker_perform_On_gyne_stridulation14</t>
   </si>
   <si>
     <t>2.28metal4</t>
   </si>
   <si>
-    <t>On_gyne_stridulation15</t>
+    <t>worker_perform_On_gyne_stridulation15</t>
   </si>
   <si>
     <t>2.28metal5</t>
   </si>
   <si>
-    <t>On_gyne_stridulation16</t>
+    <t>worker_perform_On_gyne_stridulation16</t>
   </si>
   <si>
     <t>2.28metal6</t>
   </si>
   <si>
-    <t>On_gyne_stridulation17</t>
+    <t>worker_perform_On_gyne_stridulation17</t>
   </si>
   <si>
     <t>2.28metal7</t>
   </si>
   <si>
-    <t>On_gyne_stridulation18</t>
+    <t>worker_perform_On_gyne_stridulation18</t>
   </si>
   <si>
     <t>2.28metal8</t>
   </si>
   <si>
-    <t>On_gyne_stridulation19</t>
+    <t>worker_perform_On_gyne_stridulation19</t>
   </si>
   <si>
     <t>2.28metal9</t>
   </si>
   <si>
-    <t>On_gyne_stridulation20</t>
+    <t>worker_perform_On_gyne_stridulation20</t>
   </si>
   <si>
     <t>2.28metal10</t>
@@ -509,7 +509,7 @@
     <t>4.2.worker_polygyne_trap_G1P_9</t>
   </si>
   <si>
-    <t>gyne_distress1</t>
+    <t>young_queen_distress1</t>
   </si>
   <si>
     <t>gyne</t>
@@ -518,169 +518,169 @@
     <t>R9gyne1help（2.19）</t>
   </si>
   <si>
-    <t>gyne_distress2</t>
+    <t>young_queen_distress2</t>
   </si>
   <si>
     <t>R9gyne2help(2.19)</t>
   </si>
   <si>
-    <t>gyne_distress3</t>
+    <t>young_queen_distress3</t>
   </si>
   <si>
     <t>gyne_trapped1(9.19)</t>
   </si>
   <si>
-    <t>gyne_distress4</t>
+    <t>young_queen_distress4</t>
   </si>
   <si>
     <t>gyne_trapped2(9.19)</t>
   </si>
   <si>
-    <t>gyne_distress5</t>
+    <t>young_queen_distress5</t>
   </si>
   <si>
     <t>gyne_trapped3(9.19)</t>
   </si>
   <si>
-    <t>gyne_distress6</t>
+    <t>young_queen_distress6</t>
   </si>
   <si>
     <t>gyne_G1P 1（noise_reduction）(10.9)</t>
   </si>
   <si>
-    <t>gyne_distress7</t>
+    <t>young_queen_distress7</t>
   </si>
   <si>
     <t>gyne_G1P 2（noise_reduction）(10.9)</t>
   </si>
   <si>
-    <t>gyne_distress8</t>
+    <t>young_queen_distress8</t>
   </si>
   <si>
     <t>gyne G1P 3（noise_reduction）(10.9)</t>
   </si>
   <si>
-    <t>gyne_distress9</t>
+    <t>young_queen_distress9</t>
   </si>
   <si>
     <t>gyne L4M 2（noise_reduction）(10.9)</t>
   </si>
   <si>
-    <t>gyne_distress10</t>
+    <t>young_queen_distress10</t>
   </si>
   <si>
     <t>gyne L4M 3（noise_reduction）(10.9)</t>
   </si>
   <si>
-    <t>gyne_distress11</t>
+    <t>young_queen_distress11</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_1</t>
   </si>
   <si>
-    <t>gyne_distress12</t>
+    <t>young_queen_distress12</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_2</t>
   </si>
   <si>
-    <t>gyne_distress13</t>
+    <t>young_queen_distress13</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_3</t>
   </si>
   <si>
-    <t>gyne_distress14</t>
+    <t>young_queen_distress14</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_4</t>
   </si>
   <si>
-    <t>gyne_distress15</t>
+    <t>young_queen_distress15</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_5</t>
   </si>
   <si>
-    <t>gyne_distress16</t>
+    <t>young_queen_distress16</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_6</t>
   </si>
   <si>
-    <t>gyne_distress17</t>
+    <t>young_queen_distress17</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_7</t>
   </si>
   <si>
-    <t>gyne_distress18</t>
+    <t>young_queen_distress18</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_8</t>
   </si>
   <si>
-    <t>gyne_distress19</t>
+    <t>young_queen_distress19</t>
   </si>
   <si>
     <t>4.7.gyne_polygyne_trap_Q2P_9</t>
   </si>
   <si>
-    <t>gyne_distress20</t>
+    <t>young_queen_distress20</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_1</t>
   </si>
   <si>
-    <t>gyne_distress21</t>
+    <t>young_queen_distress21</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_2</t>
   </si>
   <si>
-    <t>gyne_distress22</t>
+    <t>young_queen_distress22</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_3</t>
   </si>
   <si>
-    <t>gyne_distress23</t>
+    <t>young_queen_distress23</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_4</t>
   </si>
   <si>
-    <t>gyne_distress24</t>
+    <t>young_queen_distress24</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_5</t>
   </si>
   <si>
-    <t>gyne_distress25</t>
+    <t>young_queen_distress25</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_6</t>
   </si>
   <si>
-    <t>gyne_distress26</t>
+    <t>young_queen_distress26</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_7</t>
   </si>
   <si>
-    <t>gyne_distress27</t>
+    <t>young_queen_distress27</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_8</t>
   </si>
   <si>
-    <t>gyne_distress28</t>
+    <t>young_queen_distress28</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_9</t>
   </si>
   <si>
-    <t>gyne_distress29</t>
+    <t>young_queen_distress29</t>
   </si>
   <si>
     <t>4.14.gyne_polygyne_trap_X4_10</t>
@@ -713,7 +713,7 @@
     <t>9.23 male_trapped2</t>
   </si>
   <si>
-    <t>Queen_distress1</t>
+    <t>mated_queen_distress1</t>
   </si>
   <si>
     <t>queen</t>
@@ -722,85 +722,43 @@
     <t>C5M  monogyne(2.17)</t>
   </si>
   <si>
-    <t>Queen_distress2</t>
-  </si>
-  <si>
     <t>F4M monogyne(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress3</t>
-  </si>
-  <si>
     <t>monogyne(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress4</t>
-  </si>
-  <si>
     <t>polygyne R9 1(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress5</t>
-  </si>
-  <si>
     <t>polygyne R9 2(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress6</t>
-  </si>
-  <si>
     <t>polygyne R9 3(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress7</t>
-  </si>
-  <si>
     <t>polygyne R9 4(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress8</t>
-  </si>
-  <si>
     <t>polygyne R9 5(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress9</t>
-  </si>
-  <si>
     <t>polygyne R9 6(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress10</t>
-  </si>
-  <si>
     <t>polygyne R9 7(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress11</t>
-  </si>
-  <si>
     <t>polygyne R9 8(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress12</t>
-  </si>
-  <si>
     <t>polygyne R9 9(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress13</t>
-  </si>
-  <si>
     <t>polygyne R9 10(2.17 )</t>
   </si>
   <si>
-    <t>Queen_distress14</t>
-  </si>
-  <si>
     <t>queen_trapped1 T2P(9.26)</t>
-  </si>
-  <si>
-    <t>Queen_distress15</t>
   </si>
   <si>
     <t>queen_trapped2 B6P(9.26)</t>
@@ -1744,8 +1702,8 @@
   <sheetPr/>
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:F143"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -3938,7 +3896,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3953,12 +3911,12 @@
         <v>102</v>
       </c>
       <c r="F110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3973,12 +3931,12 @@
         <v>102</v>
       </c>
       <c r="F111" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3993,12 +3951,12 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -4013,12 +3971,12 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -4033,12 +3991,12 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -4053,12 +4011,12 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -4073,12 +4031,12 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -4093,12 +4051,12 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -4113,12 +4071,12 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -4133,12 +4091,12 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -4153,12 +4111,12 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -4173,12 +4131,12 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -4193,12 +4151,12 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -4213,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/github.xlsx
+++ b/github.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="259">
   <si>
     <t>File_name</t>
   </si>
@@ -722,43 +722,85 @@
     <t>C5M  monogyne(2.17)</t>
   </si>
   <si>
+    <t>mated_queen_distress2</t>
+  </si>
+  <si>
     <t>F4M monogyne(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress3</t>
+  </si>
+  <si>
     <t>monogyne(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress4</t>
+  </si>
+  <si>
     <t>polygyne R9 1(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress5</t>
+  </si>
+  <si>
     <t>polygyne R9 2(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress6</t>
+  </si>
+  <si>
     <t>polygyne R9 3(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress7</t>
+  </si>
+  <si>
     <t>polygyne R9 4(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress8</t>
+  </si>
+  <si>
     <t>polygyne R9 5(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress9</t>
+  </si>
+  <si>
     <t>polygyne R9 6(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress10</t>
+  </si>
+  <si>
     <t>polygyne R9 7(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress11</t>
+  </si>
+  <si>
     <t>polygyne R9 8(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress12</t>
+  </si>
+  <si>
     <t>polygyne R9 9(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress13</t>
+  </si>
+  <si>
     <t>polygyne R9 10(2.17 )</t>
   </si>
   <si>
+    <t>mated_queen_distress14</t>
+  </si>
+  <si>
     <t>queen_trapped1 T2P(9.26)</t>
+  </si>
+  <si>
+    <t>mated_queen_distress15</t>
   </si>
   <si>
     <t>queen_trapped2 B6P(9.26)</t>
@@ -3896,7 +3938,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3911,12 +3953,12 @@
         <v>102</v>
       </c>
       <c r="F110" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3931,12 +3973,12 @@
         <v>102</v>
       </c>
       <c r="F111" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3951,12 +3993,12 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3971,12 +4013,12 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3991,12 +4033,12 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -4011,12 +4053,12 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -4031,12 +4073,12 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -4051,12 +4093,12 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -4071,12 +4113,12 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -4091,12 +4133,12 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -4111,12 +4153,12 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -4131,12 +4173,12 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -4151,12 +4193,12 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -4171,7 +4213,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
